--- a/output/members_details.xlsx
+++ b/output/members_details.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,366 +432,6 @@
           <t>Total Members</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Top Country 1</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Top Country 2</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Top Country 3</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Top Country 4</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Top Country 5</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Top Country 6</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Top Country 7</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Top Country 8</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Top Country 9</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Top Country 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/microsoft/people/</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>228,289</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>103,886, United States</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>56,773, Washington, United States</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>56,421, Greater Seattle Area</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>29,431, India</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>18,811, Redmond, WA</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>9,945, California, United States</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>7,926, Telangana, India</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>7,918, Karnataka, India</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>7,840, Greater Hyderabad Area</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>7,784, Greater Bengaluru Area</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/apple/people/</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>170,923</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>90,171, United States</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>52,591, California, United States</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>41,919, San Francisco Bay Area</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>13,305, India</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>10,424, Cupertino, CA</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>10,363, Texas, United States</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>8,069, Austin, Texas Metropolitan Area</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>7,056, United Kingdom</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>7,048, San Jose, CA</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>6,362, Austin, TX</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/nvidia/people/</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>30,726</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>15,923, United States</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10,246, California, United States</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>9,431, San Francisco Bay Area</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5,089, India</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3,209, Israel</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2,849, Santa Clara, CA</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2,352, San Jose, CA</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2,084, Karnataka, India</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2,037, Greater Bengaluru Area</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>1,974, Bengaluru</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/google/people/</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>286,753</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>115,073, United States</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>59,449, California, United States</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>51,767, San Francisco Bay Area</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>46,283, India</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>18,092, New York City Metropolitan Area</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>15,961, New York, United States</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>11,002, United Kingdom</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>10,054, England, United Kingdom</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>7,235, London Area, United Kingdom</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>6,533, Karnataka, India</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/amazon/people/</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>735,012</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>298,684, United States</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>156,816, India</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>66,306, Washington, United States</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>65,120, Greater Seattle Area</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>52,403, California, United States</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>44,593, Seattle, WA</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>38,051, United Kingdom</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>33,334, England, United Kingdom</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>30,804, Karnataka, India</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>29,213, Greater Bengaluru Area</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
